--- a/ExecutionTestData/2/TestData.xlsx
+++ b/ExecutionTestData/2/TestData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DBS bank\Milestone2_ExecutionTestRun1\Execution Results\ExecutionTestData\New folder\2_skippedBatch2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3_skipBackup\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673A3B6B-5DEA-47AC-82A8-DE5EEC21FA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="150">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -495,7 +494,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -764,23 +763,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -816,23 +798,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1008,7 +973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
@@ -1193,24 +1158,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" style="17"/>
     <col min="2" max="2" width="42" style="17" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" style="17" customWidth="1"/>
-    <col min="4" max="9" width="17.140625" style="17"/>
-    <col min="10" max="10" width="36.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="17.140625" style="17"/>
+    <col min="3" max="8" width="17.140625" style="17"/>
+    <col min="9" max="9" width="36.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="17.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>19</v>
       </c>
@@ -1218,31 +1182,28 @@
         <v>102</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="J1" s="16" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -1250,31 +1211,28 @@
         <v>146</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>139</v>
       </c>
       <c r="F2" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="I2" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1302,11 +1260,8 @@
       <c r="I3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
@@ -1314,31 +1269,28 @@
         <v>35</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
@@ -1366,11 +1318,8 @@
       <c r="I5" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="J5" s="18" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
@@ -1398,11 +1347,8 @@
       <c r="I6" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
@@ -1430,11 +1376,8 @@
       <c r="I7" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="J7" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
@@ -1462,11 +1405,8 @@
       <c r="I8" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="J8" s="19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1474,31 +1414,28 @@
         <v>2</v>
       </c>
       <c r="C9" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" s="14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G9" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H9" s="14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I9" s="14">
-        <v>10</v>
-      </c>
-      <c r="J9" s="14">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>31</v>
       </c>
@@ -1526,17 +1463,14 @@
       <c r="I10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="19" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:J2">
+  <conditionalFormatting sqref="B2:I2">
     <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:J2">
+  <conditionalFormatting sqref="B2:I2">
     <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
@@ -1547,7 +1481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -1912,7 +1846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A65"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ExecutionTestData/2/TestData.xlsx
+++ b/ExecutionTestData/2/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shafqat.ali\Desktop\jaya credential batches\rerun batches\4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shafqat.ali\Desktop\jaya credential batches\6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="152">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -458,6 +458,9 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
+    <t>11.0.0</t>
+  </si>
+  <si>
     <t>EndPoint</t>
   </si>
   <si>
@@ -488,7 +491,10 @@
     <t>9.0.0</t>
   </si>
   <si>
-    <t>SAMSUNG_GalaxyJ4Plus_Android_9.0.0_94cc6</t>
+    <t>SAMSUNG_GalaxyJ7Pro_Android_8.1.0_42e4e</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyM01_Android_11.0.0_7425f</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1073,7 +1079,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1123,7 +1129,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1173,7 +1179,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,10 +1192,10 @@
         <v>19</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1200,7 +1206,7 @@
         <v>148</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1219,10 +1225,10 @@
         <v>23</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -1233,10 +1239,10 @@
         <v>24</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -1247,10 +1253,10 @@
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1258,10 +1264,10 @@
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1269,10 +1275,10 @@
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1294,7 +1300,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">

--- a/ExecutionTestData/2/TestData.xlsx
+++ b/ExecutionTestData/2/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\ExecutionTestData\SkippedRerunBatches2\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\ExecutionTestData\SkippedRerunBatches3\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="153">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -476,47 +476,35 @@
     <t>10.0.0</t>
   </si>
   <si>
-    <t>12.0.0</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyS10_Android_12.0.0_d2537</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyA72018_Android_10.0.0_ef0ba</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyNote10Plus_Android_12.0.0_513d6</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyA03_Android_11.0.0_0a1a4</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyA72_Android_12.0.0_0e2fb</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyTabA7_Android_11.0.0_6ddce</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyA32_Android_11.0.0_b62bd</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyTabS5e_Android_11.0.0_cb1ca</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyS21Plus_Android_12.0.0_53919</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyM32_Android_11.0.0_fe93b</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyF42_Android_11.0.0_aeb91</t>
+    <t>VIVO_V9_Android_9.0.0_8f1e4</t>
+  </si>
+  <si>
+    <t>HUAWEI_Honor9A_Android_10.0.0_d1e87</t>
+  </si>
+  <si>
+    <t>HUAWEI_Honor20i_Android_10.0.0_3641a</t>
+  </si>
+  <si>
+    <t>OPPO_F7_Android_10.0.0_f14bd</t>
+  </si>
+  <si>
+    <t>NOKIA_2.3_Android_10.0.0_8c175</t>
+  </si>
+  <si>
+    <t>OPPO_Realme2_Android_9.0.0_911fd</t>
+  </si>
+  <si>
+    <t>REALME_9i_Android_11.0.0_2410</t>
+  </si>
+  <si>
+    <t>VIVO_Y17_Android_9.0.0_41f40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -558,11 +546,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -578,7 +561,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -631,12 +614,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -687,7 +683,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1184,87 +1182,89 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="43.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="41" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="33.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="33.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.140625" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F1" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="J1" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="M1" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="P1" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="Q1" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="R1" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="M1" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -1272,34 +1272,34 @@
         <v>137</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>137</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>142</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>137</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>144</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="J2" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="J2" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>137</v>
+      <c r="K2" s="21" t="s">
+        <v>142</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="M2" s="20" t="s">
         <v>137</v>
@@ -1308,16 +1308,19 @@
         <v>137</v>
       </c>
       <c r="O2" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P2" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q2" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="Q2" s="20" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2" s="20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1369,8 +1372,11 @@
       <c r="Q3" s="17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
@@ -1378,52 +1384,55 @@
         <v>42</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="J4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="K4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="M4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="N4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="O4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="P4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="Q4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="R4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
@@ -1475,8 +1484,11 @@
       <c r="Q5" s="19" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
@@ -1528,8 +1540,11 @@
       <c r="Q6" s="15" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
@@ -1581,8 +1596,11 @@
       <c r="Q7" s="16" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
@@ -1634,8 +1652,11 @@
       <c r="Q8" s="16" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1687,8 +1708,11 @@
       <c r="Q9" s="18">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1738,6 +1762,9 @@
         <v>32</v>
       </c>
       <c r="Q10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" s="16" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1751,8 +1778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:U2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1842,7 +1869,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>53</v>
       </c>
       <c r="B2" t="s">
@@ -1907,7 +1934,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
+      <c r="A3" s="23"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -2023,7 +2050,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="24" t="s">
         <v>60</v>
       </c>
       <c r="B12" t="s">
@@ -2049,7 +2076,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="24"/>
       <c r="B13">
         <v>121212</v>
       </c>

--- a/ExecutionTestData/2/TestData.xlsx
+++ b/ExecutionTestData/2/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\ExecutionTestData\SkippedRerunBatches3\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="151">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -476,13 +476,7 @@
     <t>10.0.0</t>
   </si>
   <si>
-    <t>VIVO_V9_Android_9.0.0_8f1e4</t>
-  </si>
-  <si>
     <t>HUAWEI_Honor9A_Android_10.0.0_d1e87</t>
-  </si>
-  <si>
-    <t>HUAWEI_Honor20i_Android_10.0.0_3641a</t>
   </si>
   <si>
     <t>OPPO_F7_Android_10.0.0_f14bd</t>
@@ -632,7 +626,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -684,7 +678,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1182,10 +1175,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,21 +1187,18 @@
     <col min="2" max="3" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="33.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="33.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="33.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.140625" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
@@ -1231,40 +1221,31 @@
         <v>146</v>
       </c>
       <c r="H1" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="J1" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="M1" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="J1" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="L1" s="20" t="s">
+      <c r="N1" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="M1" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>131</v>
-      </c>
       <c r="O1" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="P1" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="Q1" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -1281,13 +1262,13 @@
         <v>137</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>144</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="I2" s="20" t="s">
         <v>144</v>
@@ -1295,32 +1276,23 @@
       <c r="J2" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="K2" s="21" t="s">
-        <v>142</v>
+      <c r="K2" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="L2" s="20" t="s">
         <v>144</v>
       </c>
       <c r="M2" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="N2" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="N2" s="20" t="s">
-        <v>137</v>
-      </c>
       <c r="O2" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="P2" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="Q2" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="R2" s="20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1366,17 +1338,8 @@
       <c r="O3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="R3" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
@@ -1393,46 +1356,37 @@
         <v>35</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
@@ -1478,17 +1432,8 @@
       <c r="O5" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="P5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="R5" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
@@ -1534,17 +1479,8 @@
       <c r="O6" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="P6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="R6" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
@@ -1590,17 +1526,8 @@
       <c r="O7" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="P7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="R7" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
@@ -1646,17 +1573,8 @@
       <c r="O8" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="P8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="R8" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1702,17 +1620,8 @@
       <c r="O9" s="18">
         <v>14</v>
       </c>
-      <c r="P9" s="18">
-        <v>15</v>
-      </c>
-      <c r="Q9" s="18">
-        <v>16</v>
-      </c>
-      <c r="R9" s="18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1756,15 +1665,6 @@
         <v>32</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="R10" s="16" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1869,7 +1769,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>53</v>
       </c>
       <c r="B2" t="s">
@@ -1934,7 +1834,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
+      <c r="A3" s="22"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -2050,7 +1950,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="23" t="s">
         <v>60</v>
       </c>
       <c r="B12" t="s">
@@ -2076,7 +1976,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
+      <c r="A13" s="23"/>
       <c r="B13">
         <v>121212</v>
       </c>
